--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A6B8EF-092C-4AB2-9FFB-9E2AFA6EDC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,6 +52,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,14 +60,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -382,7 +384,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1339,162 +1341,162 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Comma" xfId="154" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
     <cellStyle name="Percent" xfId="155" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1524,7 +1526,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1776,133 +1777,133 @@
                   <c:v>3.142498616321923E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.2092630056054029E-4</c:v>
+                  <c:v>3.1859095271137485E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.2760273948888828E-4</c:v>
+                  <c:v>3.2293204379055739E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.3427917841723627E-4</c:v>
+                  <c:v>3.2727313486973994E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.4095561734558426E-4</c:v>
+                  <c:v>3.3161422594892248E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.4763205627393225E-4</c:v>
+                  <c:v>3.3595531702810503E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.5430849520228023E-4</c:v>
+                  <c:v>3.4029640810728757E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.6098493413062822E-4</c:v>
+                  <c:v>3.4463749918647011E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.6766137305897621E-4</c:v>
+                  <c:v>3.4897859026565266E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.743378119873242E-4</c:v>
+                  <c:v>3.533196813448352E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8101425091567219E-4</c:v>
+                  <c:v>3.5766077242401775E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.8769068984402017E-4</c:v>
+                  <c:v>3.6200186350320029E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.9436712877236816E-4</c:v>
+                  <c:v>3.6634295458238284E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
-                  <c:v>4.010435677007162E-4</c:v>
+                  <c:v>3.7068404566156505E-4</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00E+00">
-                  <c:v>4.1543936179917892E-4</c:v>
+                  <c:v>3.8286968063361244E-4</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00E+00">
-                  <c:v>4.232456921304615E-4</c:v>
+                  <c:v>3.8999540362380768E-4</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00E+00">
-                  <c:v>4.284224989356039E-4</c:v>
+                  <c:v>3.9439145706872869E-4</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00E+00">
-                  <c:v>4.3223887309206766E-4</c:v>
+                  <c:v>3.9758791642567675E-4</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00E+00">
-                  <c:v>4.3661930301858122E-4</c:v>
+                  <c:v>4.1670440259151796E-4</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00E+00">
-                  <c:v>4.4073837767711228E-4</c:v>
+                  <c:v>4.5449874343080136E-4</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00E+00">
-                  <c:v>4.4130433819121803E-4</c:v>
+                  <c:v>4.5571840174311271E-4</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00E+00">
-                  <c:v>4.4139330713525239E-4</c:v>
+                  <c:v>4.5632492494806224E-4</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00E+00">
-                  <c:v>4.4143859386227608E-4</c:v>
+                  <c:v>4.5682343934192723E-4</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00E+00">
-                  <c:v>4.4252278985937798E-4</c:v>
+                  <c:v>4.5864796428233097E-4</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00E+00">
-                  <c:v>4.4258101673758966E-4</c:v>
+                  <c:v>4.5942511490356416E-4</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00E+00">
-                  <c:v>4.4262644410952699E-4</c:v>
+                  <c:v>4.6038567019040524E-4</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00E+00">
-                  <c:v>4.4263525674443374E-4</c:v>
+                  <c:v>4.6137990440500237E-4</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00E+00">
-                  <c:v>4.428907913418545E-4</c:v>
+                  <c:v>4.627584500454361E-4</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00E+00">
-                  <c:v>4.4235185104972023E-4</c:v>
+                  <c:v>4.6332164296180965E-4</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00E+00">
-                  <c:v>4.4180682000362565E-4</c:v>
+                  <c:v>4.6388593065941057E-4</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00E+00">
-                  <c:v>4.415169210975881E-4</c:v>
+                  <c:v>4.6479081055883617E-4</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00E+00">
-                  <c:v>4.4141525513386555E-4</c:v>
+                  <c:v>4.6598088096797761E-4</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00E+00">
-                  <c:v>4.4094858868260617E-4</c:v>
+                  <c:v>4.6672534660756901E-4</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00E+00">
-                  <c:v>4.406528424788466E-4</c:v>
+                  <c:v>4.6768413007742366E-4</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00E+00">
-                  <c:v>4.4046477188487546E-4</c:v>
+                  <c:v>4.6835837126328925E-4</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00E+00">
-                  <c:v>4.4016736396697124E-4</c:v>
+                  <c:v>4.6888408232764332E-4</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00E+00">
-                  <c:v>4.3991921468742256E-4</c:v>
+                  <c:v>4.6949898925199146E-4</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00E+00">
-                  <c:v>4.3980677282836695E-4</c:v>
+                  <c:v>4.7032072339820558E-4</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00E+00">
-                  <c:v>4.3981133028276362E-4</c:v>
+                  <c:v>4.7135545011319722E-4</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00E+00">
-                  <c:v>4.3960459654073496E-4</c:v>
+                  <c:v>4.7215508696463892E-4</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00E+00">
-                  <c:v>4.3945697770705547E-4</c:v>
+                  <c:v>4.730119981602886E-4</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00E+00">
-                  <c:v>4.3919624527100954E-4</c:v>
+                  <c:v>4.737905892831368E-4</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00E+00">
-                  <c:v>4.3913823303573507E-4</c:v>
+                  <c:v>4.7491927991846777E-4</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00E+00">
-                  <c:v>4.3909651675542918E-4</c:v>
+                  <c:v>4.7615242132589445E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,7 +1989,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2988,7 +2988,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3452,7 +3451,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3961,7 +3959,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4470,7 +4467,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4967,7 +4963,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5464,7 +5459,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5992,7 +5986,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6519,7 +6512,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7586,6 +7578,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7621,6 +7630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7796,17 +7822,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="107.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="107.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8016,7 +8042,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8024,7 +8050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8034,9 +8060,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -9054,7 +9080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9064,9 +9090,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -9958,7 +9984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9968,9 +9994,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -10862,7 +10888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10872,11 +10898,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -11802,7 +11828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11812,9 +11838,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -12706,7 +12732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12716,10 +12742,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -13729,7 +13755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13739,9 +13765,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -14633,7 +14659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14643,9 +14669,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -15663,7 +15689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15673,9 +15699,9 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16492,18 +16518,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:AH20"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="30.73046875" customWidth="1"/>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -16680,97 +16706,97 @@
         <v>4</v>
       </c>
       <c r="D8" s="4">
-        <v>4.010435677007162E-4</v>
+        <v>3.7068404566156505E-4</v>
       </c>
       <c r="E8" s="4">
-        <v>4.1543936179917892E-4</v>
+        <v>3.8286968063361244E-4</v>
       </c>
       <c r="F8" s="4">
-        <v>4.232456921304615E-4</v>
+        <v>3.8999540362380768E-4</v>
       </c>
       <c r="G8" s="4">
-        <v>4.284224989356039E-4</v>
+        <v>3.9439145706872869E-4</v>
       </c>
       <c r="H8" s="4">
-        <v>4.3223887309206766E-4</v>
+        <v>3.9758791642567675E-4</v>
       </c>
       <c r="I8" s="4">
-        <v>4.3661930301858122E-4</v>
+        <v>4.1670440259151796E-4</v>
       </c>
       <c r="J8" s="4">
-        <v>4.4073837767711228E-4</v>
+        <v>4.5449874343080136E-4</v>
       </c>
       <c r="K8" s="4">
-        <v>4.4130433819121803E-4</v>
+        <v>4.5571840174311271E-4</v>
       </c>
       <c r="L8" s="4">
-        <v>4.4139330713525239E-4</v>
+        <v>4.5632492494806224E-4</v>
       </c>
       <c r="M8" s="4">
-        <v>4.4143859386227608E-4</v>
+        <v>4.5682343934192723E-4</v>
       </c>
       <c r="N8" s="4">
-        <v>4.4252278985937798E-4</v>
+        <v>4.5864796428233097E-4</v>
       </c>
       <c r="O8" s="4">
-        <v>4.4258101673758966E-4</v>
+        <v>4.5942511490356416E-4</v>
       </c>
       <c r="P8" s="4">
-        <v>4.4262644410952699E-4</v>
+        <v>4.6038567019040524E-4</v>
       </c>
       <c r="Q8" s="4">
-        <v>4.4263525674443374E-4</v>
+        <v>4.6137990440500237E-4</v>
       </c>
       <c r="R8" s="4">
-        <v>4.428907913418545E-4</v>
+        <v>4.627584500454361E-4</v>
       </c>
       <c r="S8" s="4">
-        <v>4.4235185104972023E-4</v>
+        <v>4.6332164296180965E-4</v>
       </c>
       <c r="T8" s="4">
-        <v>4.4180682000362565E-4</v>
+        <v>4.6388593065941057E-4</v>
       </c>
       <c r="U8" s="4">
-        <v>4.415169210975881E-4</v>
+        <v>4.6479081055883617E-4</v>
       </c>
       <c r="V8" s="4">
-        <v>4.4141525513386555E-4</v>
+        <v>4.6598088096797761E-4</v>
       </c>
       <c r="W8" s="4">
-        <v>4.4094858868260617E-4</v>
+        <v>4.6672534660756901E-4</v>
       </c>
       <c r="X8" s="4">
-        <v>4.406528424788466E-4</v>
+        <v>4.6768413007742366E-4</v>
       </c>
       <c r="Y8" s="4">
-        <v>4.4046477188487546E-4</v>
+        <v>4.6835837126328925E-4</v>
       </c>
       <c r="Z8" s="4">
-        <v>4.4016736396697124E-4</v>
+        <v>4.6888408232764332E-4</v>
       </c>
       <c r="AA8" s="4">
-        <v>4.3991921468742256E-4</v>
+        <v>4.6949898925199146E-4</v>
       </c>
       <c r="AB8" s="4">
-        <v>4.3980677282836695E-4</v>
+        <v>4.7032072339820558E-4</v>
       </c>
       <c r="AC8" s="4">
-        <v>4.3981133028276362E-4</v>
+        <v>4.7135545011319722E-4</v>
       </c>
       <c r="AD8" s="4">
-        <v>4.3960459654073496E-4</v>
+        <v>4.7215508696463892E-4</v>
       </c>
       <c r="AE8" s="4">
-        <v>4.3945697770705547E-4</v>
+        <v>4.730119981602886E-4</v>
       </c>
       <c r="AF8" s="4">
-        <v>4.3919624527100954E-4</v>
+        <v>4.737905892831368E-4</v>
       </c>
       <c r="AG8" s="4">
-        <v>4.3913823303573507E-4</v>
+        <v>4.7491927991846777E-4</v>
       </c>
       <c r="AH8" s="4">
-        <v>4.3909651675542918E-4</v>
+        <v>4.7615242132589445E-4</v>
       </c>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -18864,14 +18890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -19243,14 +19269,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" customWidth="1"/>
+    <col min="1" max="1" width="50.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19350,18 +19376,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" customWidth="1"/>
+    <col min="1" max="1" width="42.08984375" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19519,7 +19545,7 @@
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
-        <v>4.010435677007162E-4</v>
+        <v>3.7068404566156505E-4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -19537,7 +19563,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5">
+    <row r="20" spans="1:4" ht="29">
       <c r="A20" s="22" t="s">
         <v>68</v>
       </c>
@@ -19555,7 +19581,7 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5">
+    <row r="22" spans="1:4" ht="29">
       <c r="A22" s="22" t="s">
         <v>70</v>
       </c>
@@ -19639,7 +19665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -19647,11 +19673,11 @@
       <selection pane="topRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" customWidth="1"/>
-    <col min="39" max="39" width="9.1328125" style="13"/>
+    <col min="15" max="15" width="11.36328125" customWidth="1"/>
+    <col min="39" max="39" width="9.08984375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19897,175 +19923,175 @@
       </c>
       <c r="AB2" s="17">
         <f>($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AA2</f>
-        <v>3.2092630056054029E-4</v>
+        <v>3.1859095271137485E-4</v>
       </c>
       <c r="AC2" s="17">
         <f t="shared" ref="AC2:AM2" si="0">($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AB2</f>
-        <v>3.2760273948888828E-4</v>
+        <v>3.2293204379055739E-4</v>
       </c>
       <c r="AD2" s="17">
         <f t="shared" si="0"/>
-        <v>3.3427917841723627E-4</v>
+        <v>3.2727313486973994E-4</v>
       </c>
       <c r="AE2" s="17">
         <f t="shared" si="0"/>
-        <v>3.4095561734558426E-4</v>
+        <v>3.3161422594892248E-4</v>
       </c>
       <c r="AF2" s="17">
         <f t="shared" si="0"/>
-        <v>3.4763205627393225E-4</v>
+        <v>3.3595531702810503E-4</v>
       </c>
       <c r="AG2" s="17">
         <f t="shared" si="0"/>
-        <v>3.5430849520228023E-4</v>
+        <v>3.4029640810728757E-4</v>
       </c>
       <c r="AH2" s="17">
         <f t="shared" si="0"/>
-        <v>3.6098493413062822E-4</v>
+        <v>3.4463749918647011E-4</v>
       </c>
       <c r="AI2" s="17">
         <f t="shared" si="0"/>
-        <v>3.6766137305897621E-4</v>
+        <v>3.4897859026565266E-4</v>
       </c>
       <c r="AJ2" s="17">
         <f t="shared" si="0"/>
-        <v>3.743378119873242E-4</v>
+        <v>3.533196813448352E-4</v>
       </c>
       <c r="AK2" s="17">
         <f t="shared" si="0"/>
-        <v>3.8101425091567219E-4</v>
+        <v>3.5766077242401775E-4</v>
       </c>
       <c r="AL2" s="17">
         <f t="shared" si="0"/>
-        <v>3.8769068984402017E-4</v>
+        <v>3.6200186350320029E-4</v>
       </c>
       <c r="AM2" s="31">
         <f t="shared" si="0"/>
-        <v>3.9436712877236816E-4</v>
+        <v>3.6634295458238284E-4</v>
       </c>
       <c r="AN2" s="15">
         <f>BNVFE!D8</f>
-        <v>4.010435677007162E-4</v>
+        <v>3.7068404566156505E-4</v>
       </c>
       <c r="AO2" s="15">
         <f>BNVFE!E8</f>
-        <v>4.1543936179917892E-4</v>
+        <v>3.8286968063361244E-4</v>
       </c>
       <c r="AP2" s="15">
         <f>BNVFE!F8</f>
-        <v>4.232456921304615E-4</v>
+        <v>3.8999540362380768E-4</v>
       </c>
       <c r="AQ2" s="15">
         <f>BNVFE!G8</f>
-        <v>4.284224989356039E-4</v>
+        <v>3.9439145706872869E-4</v>
       </c>
       <c r="AR2" s="15">
         <f>BNVFE!H8</f>
-        <v>4.3223887309206766E-4</v>
+        <v>3.9758791642567675E-4</v>
       </c>
       <c r="AS2" s="15">
         <f>BNVFE!I8</f>
-        <v>4.3661930301858122E-4</v>
+        <v>4.1670440259151796E-4</v>
       </c>
       <c r="AT2" s="15">
         <f>BNVFE!J8</f>
-        <v>4.4073837767711228E-4</v>
+        <v>4.5449874343080136E-4</v>
       </c>
       <c r="AU2" s="15">
         <f>BNVFE!K8</f>
-        <v>4.4130433819121803E-4</v>
+        <v>4.5571840174311271E-4</v>
       </c>
       <c r="AV2" s="15">
         <f>BNVFE!L8</f>
-        <v>4.4139330713525239E-4</v>
+        <v>4.5632492494806224E-4</v>
       </c>
       <c r="AW2" s="15">
         <f>BNVFE!M8</f>
-        <v>4.4143859386227608E-4</v>
+        <v>4.5682343934192723E-4</v>
       </c>
       <c r="AX2" s="15">
         <f>BNVFE!N8</f>
-        <v>4.4252278985937798E-4</v>
+        <v>4.5864796428233097E-4</v>
       </c>
       <c r="AY2" s="15">
         <f>BNVFE!O8</f>
-        <v>4.4258101673758966E-4</v>
+        <v>4.5942511490356416E-4</v>
       </c>
       <c r="AZ2" s="15">
         <f>BNVFE!P8</f>
-        <v>4.4262644410952699E-4</v>
+        <v>4.6038567019040524E-4</v>
       </c>
       <c r="BA2" s="15">
         <f>BNVFE!Q8</f>
-        <v>4.4263525674443374E-4</v>
+        <v>4.6137990440500237E-4</v>
       </c>
       <c r="BB2" s="15">
         <f>BNVFE!R8</f>
-        <v>4.428907913418545E-4</v>
+        <v>4.627584500454361E-4</v>
       </c>
       <c r="BC2" s="15">
         <f>BNVFE!S8</f>
-        <v>4.4235185104972023E-4</v>
+        <v>4.6332164296180965E-4</v>
       </c>
       <c r="BD2" s="15">
         <f>BNVFE!T8</f>
-        <v>4.4180682000362565E-4</v>
+        <v>4.6388593065941057E-4</v>
       </c>
       <c r="BE2" s="15">
         <f>BNVFE!U8</f>
-        <v>4.415169210975881E-4</v>
+        <v>4.6479081055883617E-4</v>
       </c>
       <c r="BF2" s="15">
         <f>BNVFE!V8</f>
-        <v>4.4141525513386555E-4</v>
+        <v>4.6598088096797761E-4</v>
       </c>
       <c r="BG2" s="15">
         <f>BNVFE!W8</f>
-        <v>4.4094858868260617E-4</v>
+        <v>4.6672534660756901E-4</v>
       </c>
       <c r="BH2" s="15">
         <f>BNVFE!X8</f>
-        <v>4.406528424788466E-4</v>
+        <v>4.6768413007742366E-4</v>
       </c>
       <c r="BI2" s="15">
         <f>BNVFE!Y8</f>
-        <v>4.4046477188487546E-4</v>
+        <v>4.6835837126328925E-4</v>
       </c>
       <c r="BJ2" s="15">
         <f>BNVFE!Z8</f>
-        <v>4.4016736396697124E-4</v>
+        <v>4.6888408232764332E-4</v>
       </c>
       <c r="BK2" s="15">
         <f>BNVFE!AA8</f>
-        <v>4.3991921468742256E-4</v>
+        <v>4.6949898925199146E-4</v>
       </c>
       <c r="BL2" s="15">
         <f>BNVFE!AB8</f>
-        <v>4.3980677282836695E-4</v>
+        <v>4.7032072339820558E-4</v>
       </c>
       <c r="BM2" s="15">
         <f>BNVFE!AC8</f>
-        <v>4.3981133028276362E-4</v>
+        <v>4.7135545011319722E-4</v>
       </c>
       <c r="BN2" s="15">
         <f>BNVFE!AD8</f>
-        <v>4.3960459654073496E-4</v>
+        <v>4.7215508696463892E-4</v>
       </c>
       <c r="BO2" s="15">
         <f>BNVFE!AE8</f>
-        <v>4.3945697770705547E-4</v>
+        <v>4.730119981602886E-4</v>
       </c>
       <c r="BP2" s="15">
         <f>BNVFE!AF8</f>
-        <v>4.3919624527100954E-4</v>
+        <v>4.737905892831368E-4</v>
       </c>
       <c r="BQ2" s="15">
         <f>BNVFE!AG8</f>
-        <v>4.3913823303573507E-4</v>
+        <v>4.7491927991846777E-4</v>
       </c>
       <c r="BR2" s="15">
         <f>BNVFE!AH8</f>
-        <v>4.3909651675542918E-4</v>
+        <v>4.7615242132589445E-4</v>
       </c>
       <c r="BS2" s="15"/>
       <c r="BT2" s="4"/>
@@ -23090,7 +23116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23100,9 +23126,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -23344,123 +23370,123 @@
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0495642992099084E-4</v>
+        <v>3.0273729318629119E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1206914647141513E-4</v>
+        <v>3.0761991621687003E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1882187840910213E-4</v>
+        <v>3.1213979915246134E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.2511303052032729E-4</v>
+        <v>3.1620568917810511E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.3132507899165593E-4</v>
+        <v>3.2019608072131204E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.3654940106272427E-4</v>
+        <v>3.2323964534612426E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.4251086081258395E-4</v>
+        <v>3.2700003616200409E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.4855887390285254E-4</v>
+        <v>3.3084678824742565E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.5467038374657962E-4</v>
+        <v>3.347565299442292E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.606941984468817E-4</v>
+        <v>3.3858619543846379E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.6680695227320973E-4</v>
+        <v>3.4250190615166639E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.7287562060881878E-4</v>
+        <v>3.4637865729529685E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.7896305858214533E-4</v>
+        <v>3.5027505993149845E-4</v>
       </c>
       <c r="P3" s="4">
         <f>BNVFE!P25*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.9236503637815238E-4</v>
+        <v>3.6160433984711515E-4</v>
       </c>
       <c r="Q3" s="4">
         <f>BNVFE!Q25*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.9958069974953693E-4</v>
+        <v>3.6818953902328103E-4</v>
       </c>
       <c r="R3" s="4">
         <f>BNVFE!R25*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>4.0425029377326959E-4</v>
+        <v>3.7213933156593097E-4</v>
       </c>
       <c r="S3" s="4">
         <f>BNVFE!S25*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>4.0766085158771333E-4</v>
+        <v>3.7498022200458688E-4</v>
       </c>
       <c r="T3" s="4">
         <f>BNVFE!T25*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>4.1161322090888235E-4</v>
+        <v>3.9283888763458292E-4</v>
       </c>
       <c r="U3" s="4">
         <f>BNVFE!U25*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>4.1531514899510258E-4</v>
+        <v>4.2828177192306375E-4</v>
       </c>
       <c r="V3" s="4">
         <f>BNVFE!V25*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>4.1564996463107134E-4</v>
+        <v>4.2922609449666765E-4</v>
       </c>
       <c r="W3" s="4">
         <f>BNVFE!W25*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>4.1549338417832383E-4</v>
+        <v>4.2954884971441691E-4</v>
       </c>
       <c r="X3" s="4">
         <f>BNVFE!X25*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>4.1532681156711845E-4</v>
+        <v>4.2980161940757162E-4</v>
       </c>
       <c r="Y3" s="4">
         <f>BNVFE!Y25*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>4.1611003974718208E-4</v>
+        <v>4.3127275480689105E-4</v>
       </c>
       <c r="Z3" s="4">
         <f>BNVFE!Z25*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>4.159197079205367E-4</v>
+        <v>4.3174910892155335E-4</v>
       </c>
       <c r="AA3" s="4">
         <f>BNVFE!AA25*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>4.1570872142824807E-4</v>
+        <v>4.3238794442968778E-4</v>
       </c>
       <c r="AB3" s="4">
         <f>BNVFE!AB25*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>4.1548706556389424E-4</v>
+        <v>4.3308204592944482E-4</v>
       </c>
       <c r="AC3" s="4">
         <f>BNVFE!AC25*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>4.1544768876733244E-4</v>
+        <v>4.3408427605020098E-4</v>
       </c>
       <c r="AD3" s="4">
         <f>BNVFE!AD25*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>4.1466296916326439E-4</v>
+        <v>4.3432016321901044E-4</v>
       </c>
       <c r="AE3" s="4">
         <f>BNVFE!AE25*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>4.1384514251470114E-4</v>
+        <v>4.3452688005751722E-4</v>
       </c>
       <c r="AF3" s="4">
         <f>BNVFE!AF25*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>4.1327648701805351E-4</v>
+        <v>4.3506172517354685E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -23475,123 +23501,123 @@
       </c>
       <c r="C4" s="29">
         <f>Extrapolations!AB2</f>
-        <v>3.2092630056054029E-4</v>
+        <v>3.1859095271137485E-4</v>
       </c>
       <c r="D4" s="29">
         <f>Extrapolations!AC2</f>
-        <v>3.2760273948888828E-4</v>
+        <v>3.2293204379055739E-4</v>
       </c>
       <c r="E4" s="29">
         <f>Extrapolations!AD2</f>
-        <v>3.3427917841723627E-4</v>
+        <v>3.2727313486973994E-4</v>
       </c>
       <c r="F4" s="29">
         <f>Extrapolations!AE2</f>
-        <v>3.4095561734558426E-4</v>
+        <v>3.3161422594892248E-4</v>
       </c>
       <c r="G4" s="29">
         <f>Extrapolations!AF2</f>
-        <v>3.4763205627393225E-4</v>
+        <v>3.3595531702810503E-4</v>
       </c>
       <c r="H4" s="29">
         <f>Extrapolations!AG2</f>
-        <v>3.5430849520228023E-4</v>
+        <v>3.4029640810728757E-4</v>
       </c>
       <c r="I4" s="29">
         <f>Extrapolations!AH2</f>
-        <v>3.6098493413062822E-4</v>
+        <v>3.4463749918647011E-4</v>
       </c>
       <c r="J4" s="29">
         <f>Extrapolations!AI2</f>
-        <v>3.6766137305897621E-4</v>
+        <v>3.4897859026565266E-4</v>
       </c>
       <c r="K4" s="29">
         <f>Extrapolations!AJ2</f>
-        <v>3.743378119873242E-4</v>
+        <v>3.533196813448352E-4</v>
       </c>
       <c r="L4" s="29">
         <f>Extrapolations!AK2</f>
-        <v>3.8101425091567219E-4</v>
+        <v>3.5766077242401775E-4</v>
       </c>
       <c r="M4" s="29">
         <f>Extrapolations!AL2</f>
-        <v>3.8769068984402017E-4</v>
+        <v>3.6200186350320029E-4</v>
       </c>
       <c r="N4" s="29">
         <f>Extrapolations!AM2</f>
-        <v>3.9436712877236816E-4</v>
+        <v>3.6634295458238284E-4</v>
       </c>
       <c r="O4" s="29">
         <f>Extrapolations!AN2</f>
-        <v>4.010435677007162E-4</v>
+        <v>3.7068404566156505E-4</v>
       </c>
       <c r="P4" s="29">
         <f>Extrapolations!AO2</f>
-        <v>4.1543936179917892E-4</v>
+        <v>3.8286968063361244E-4</v>
       </c>
       <c r="Q4" s="29">
         <f>Extrapolations!AP2</f>
-        <v>4.232456921304615E-4</v>
+        <v>3.8999540362380768E-4</v>
       </c>
       <c r="R4" s="29">
         <f>Extrapolations!AQ2</f>
-        <v>4.284224989356039E-4</v>
+        <v>3.9439145706872869E-4</v>
       </c>
       <c r="S4" s="29">
         <f>Extrapolations!AR2</f>
-        <v>4.3223887309206766E-4</v>
+        <v>3.9758791642567675E-4</v>
       </c>
       <c r="T4" s="29">
         <f>Extrapolations!AS2</f>
-        <v>4.3661930301858122E-4</v>
+        <v>4.1670440259151796E-4</v>
       </c>
       <c r="U4" s="29">
         <f>Extrapolations!AT2</f>
-        <v>4.4073837767711228E-4</v>
+        <v>4.5449874343080136E-4</v>
       </c>
       <c r="V4" s="29">
         <f>Extrapolations!AU2</f>
-        <v>4.4130433819121803E-4</v>
+        <v>4.5571840174311271E-4</v>
       </c>
       <c r="W4" s="29">
         <f>Extrapolations!AV2</f>
-        <v>4.4139330713525239E-4</v>
+        <v>4.5632492494806224E-4</v>
       </c>
       <c r="X4" s="29">
         <f>Extrapolations!AW2</f>
-        <v>4.4143859386227608E-4</v>
+        <v>4.5682343934192723E-4</v>
       </c>
       <c r="Y4" s="29">
         <f>Extrapolations!AX2</f>
-        <v>4.4252278985937798E-4</v>
+        <v>4.5864796428233097E-4</v>
       </c>
       <c r="Z4" s="29">
         <f>Extrapolations!AY2</f>
-        <v>4.4258101673758966E-4</v>
+        <v>4.5942511490356416E-4</v>
       </c>
       <c r="AA4" s="29">
         <f>Extrapolations!AZ2</f>
-        <v>4.4262644410952699E-4</v>
+        <v>4.6038567019040524E-4</v>
       </c>
       <c r="AB4" s="29">
         <f>Extrapolations!BA2</f>
-        <v>4.4263525674443374E-4</v>
+        <v>4.6137990440500237E-4</v>
       </c>
       <c r="AC4" s="29">
         <f>Extrapolations!BB2</f>
-        <v>4.428907913418545E-4</v>
+        <v>4.627584500454361E-4</v>
       </c>
       <c r="AD4" s="29">
         <f>Extrapolations!BC2</f>
-        <v>4.4235185104972023E-4</v>
+        <v>4.6332164296180965E-4</v>
       </c>
       <c r="AE4" s="29">
         <f>Extrapolations!BD2</f>
-        <v>4.4180682000362565E-4</v>
+        <v>4.6388593065941057E-4</v>
       </c>
       <c r="AF4" s="29">
         <f>Extrapolations!BE2</f>
-        <v>4.415169210975881E-4</v>
+        <v>4.6479081055883617E-4</v>
       </c>
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
@@ -23606,123 +23632,123 @@
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.3247079907851041E-4</v>
+        <v>3.3005144309496473E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.3608525156768267E-4</v>
+        <v>3.3129361905197572E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.4140601212844754E-4</v>
+        <v>3.3425059969841139E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4682483192820804E-4</v>
+        <v>3.3732263769440833E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.5399117808755025E-4</v>
+        <v>3.4210083999227872E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.5770234384308779E-4</v>
+        <v>3.4355603783043959E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.6308195251352201E-4</v>
+        <v>3.4663955274299627E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.6931237060169403E-4</v>
+        <v>3.5054569205335479E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.7541688009215464E-4</v>
+        <v>3.5433816247802349E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.8060604014518434E-4</v>
+        <v>3.5727758208629781E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.8660972321779061E-4</v>
+        <v>3.6099252295587557E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.926877010252523E-4</v>
+        <v>3.6478286887036809E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.9870114016606978E-4</v>
+        <v>3.6851894295167754E-4</v>
       </c>
       <c r="P5" s="4">
         <f>BNVFE!P27*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>4.1235135875181372E-4</v>
+        <v>3.8002377134032826E-4</v>
       </c>
       <c r="Q5" s="4">
         <f>BNVFE!Q27*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>4.2000791936622607E-4</v>
+        <v>3.8701199110595277E-4</v>
       </c>
       <c r="R5" s="4">
         <f>BNVFE!R27*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>4.2525292156963163E-4</v>
+        <v>3.9147364990695831E-4</v>
       </c>
       <c r="S5" s="4">
         <f>BNVFE!S27*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>4.2886235816476826E-4</v>
+        <v>3.9448208393744698E-4</v>
       </c>
       <c r="T5" s="4">
         <f>BNVFE!T27*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>4.3285917396080627E-4</v>
+        <v>4.1311577899687946E-4</v>
       </c>
       <c r="U5" s="4">
         <f>BNVFE!U27*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>4.3707582192698479E-4</v>
+        <v>4.5072183842209402E-4</v>
       </c>
       <c r="V5" s="4">
         <f>BNVFE!V27*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>4.3740782672530476E-4</v>
+        <v>4.5169462081927711E-4</v>
       </c>
       <c r="W5" s="4">
         <f>BNVFE!W27*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>4.3733077971452199E-4</v>
+        <v>4.521249688309292E-4</v>
       </c>
       <c r="X5" s="4">
         <f>BNVFE!X27*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>4.3727737730799265E-4</v>
+        <v>4.525171976933608E-4</v>
       </c>
       <c r="Y5" s="4">
         <f>BNVFE!Y27*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>4.3826191917219735E-4</v>
+        <v>4.542318308954683E-4</v>
       </c>
       <c r="Z5" s="4">
         <f>BNVFE!Z27*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>4.381057457924663E-4</v>
+        <v>4.5477952055940612E-4</v>
       </c>
       <c r="AA5" s="4">
         <f>BNVFE!AA27*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>4.3788374849786256E-4</v>
+        <v>4.5545268634648259E-4</v>
       </c>
       <c r="AB5" s="4">
         <f>BNVFE!AB27*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>4.3769898244799599E-4</v>
+        <v>4.5623458954744165E-4</v>
       </c>
       <c r="AC5" s="4">
         <f>BNVFE!AC27*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>4.3777480871824145E-4</v>
+        <v>4.5741296931825801E-4</v>
       </c>
       <c r="AD5" s="4">
         <f>BNVFE!AD27*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>4.3716325908544007E-4</v>
+        <v>4.5788708459420266E-4</v>
       </c>
       <c r="AE5" s="4">
         <f>BNVFE!AE27*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>4.363360192507078E-4</v>
+        <v>4.5814172893183499E-4</v>
       </c>
       <c r="AF5" s="4">
         <f>BNVFE!AF27*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>4.3573558513369061E-4</v>
+        <v>4.5870472030867576E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -23737,123 +23763,123 @@
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.2428092566616732E-4</v>
+        <v>5.2046578701914962E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.3102064816912329E-4</v>
+        <v>5.2344978395413549E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.3833911588692471E-4</v>
+        <v>5.2705624955022199E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.5418108584188324E-4</v>
+        <v>5.3899781223055879E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>5.8181999979491409E-4</v>
+        <v>5.6227703675971281E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>6.1507401996100622E-4</v>
+        <v>5.9074925537233765E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>6.2764405946183748E-4</v>
+        <v>5.992207944996859E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>6.3817589517729746E-4</v>
+        <v>6.0574686534929938E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>6.4869543049513468E-4</v>
+        <v>6.1227280668123567E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>6.581047918396357E-4</v>
+        <v>6.1776762317850031E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>6.6834810198910361E-4</v>
+        <v>6.2406259610263957E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>6.7910400948621805E-4</v>
+        <v>6.3084611052237143E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>6.8981170811608045E-4</v>
+        <v>6.3759206057134501E-4</v>
       </c>
       <c r="P6" s="4">
         <f>BNVFE!P28*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>7.1344718240657083E-4</v>
+        <v>6.575142367202969E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>BNVFE!Q28*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>7.2661438980298719E-4</v>
+        <v>6.6953137976117814E-4</v>
       </c>
       <c r="R6" s="4">
         <f>BNVFE!R28*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>7.356760015799844E-4</v>
+        <v>6.7723877927624405E-4</v>
       </c>
       <c r="S6" s="4">
         <f>BNVFE!S28*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>7.4187120383651457E-4</v>
+        <v>6.8239819357187139E-4</v>
       </c>
       <c r="T6" s="4">
         <f>BNVFE!T28*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>7.4853261641737515E-4</v>
+        <v>7.143908539728348E-4</v>
       </c>
       <c r="U6" s="4">
         <f>BNVFE!U28*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>7.5506233584725639E-4</v>
+        <v>7.7863626186398447E-4</v>
       </c>
       <c r="V6" s="4">
         <f>BNVFE!V28*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>7.5521763030150985E-4</v>
+        <v>7.7988485873460188E-4</v>
       </c>
       <c r="W6" s="4">
         <f>BNVFE!W28*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>7.5422055105138291E-4</v>
+        <v>7.7973460582479433E-4</v>
       </c>
       <c r="X6" s="4">
         <f>BNVFE!X28*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>7.5304546398064301E-4</v>
+        <v>7.7929031040680061E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>BNVFE!Y28*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>7.5349566500976337E-4</v>
+        <v>7.8095244080447995E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>BNVFE!Z28*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>7.5171922103753558E-4</v>
+        <v>7.8032874533602939E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>BNVFE!AA28*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>7.4943614758610189E-4</v>
+        <v>7.795053089642472E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>BNVFE!AB28*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>7.4699197436416847E-4</v>
+        <v>7.7862547203833433E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>BNVFE!AC28*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>7.4464449629104302E-4</v>
+        <v>7.7804853854486272E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>BNVFE!AD28*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>7.4057257931631681E-4</v>
+        <v>7.7567959389579684E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>BNVFE!AE28*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>7.3602635790278052E-4</v>
+        <v>7.728089666492378E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>BNVFE!AF28*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>7.3135170735541761E-4</v>
+        <v>7.6990379444637376E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -23868,123 +23894,123 @@
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>2.898398018603075E-4</v>
+        <v>2.8773066728113853E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>2.9639229529668671E-4</v>
+        <v>2.9216657294521781E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.0225117678650028E-4</v>
+        <v>2.9591639722626953E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.0778031687736323E-4</v>
+        <v>2.99347851600729E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1364712087038462E-4</v>
+        <v>3.0311191394826462E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1818917619505965E-4</v>
+        <v>3.0560552519627761E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2376820979030025E-4</v>
+        <v>3.0910615814739656E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2959142944700965E-4</v>
+        <v>3.1284317809912674E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.3540222212257912E-4</v>
+        <v>3.1657022733976996E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.4090374402748674E-4</v>
+        <v>3.2000875588796858E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.4686163891380382E-4</v>
+        <v>3.2387819195526624E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.5254200312831522E-4</v>
+        <v>3.2748996966977387E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
-        <v>3.582922320064483E-4</v>
+        <v>3.3116904193405711E-4</v>
       </c>
       <c r="P7" s="4">
         <f>BNVFE!P29*('BHNVFEAL-LDVs-psgr'!P$4/BNVFE!P$26)</f>
-        <v>3.7083340468707854E-4</v>
+        <v>3.417607484421509E-4</v>
       </c>
       <c r="Q7" s="4">
         <f>BNVFE!Q29*('BHNVFEAL-LDVs-psgr'!Q$4/BNVFE!Q$26)</f>
-        <v>3.7782282401531729E-4</v>
+        <v>3.4814096750386184E-4</v>
       </c>
       <c r="R7" s="4">
         <f>BNVFE!R29*('BHNVFEAL-LDVs-psgr'!R$4/BNVFE!R$26)</f>
-        <v>3.8233661580785696E-4</v>
+        <v>3.519663308388775E-4</v>
       </c>
       <c r="S7" s="4">
         <f>BNVFE!S29*('BHNVFEAL-LDVs-psgr'!S$4/BNVFE!S$26)</f>
-        <v>3.8550736662354158E-4</v>
+        <v>3.5460269819358875E-4</v>
       </c>
       <c r="T7" s="4">
         <f>BNVFE!T29*('BHNVFEAL-LDVs-psgr'!T$4/BNVFE!T$26)</f>
-        <v>3.8922118122167398E-4</v>
+        <v>3.7146818447016827E-4</v>
       </c>
       <c r="U7" s="4">
         <f>BNVFE!U29*('BHNVFEAL-LDVs-psgr'!U$4/BNVFE!U$26)</f>
-        <v>3.9278680995063548E-4</v>
+        <v>4.0505007188083468E-4</v>
       </c>
       <c r="V7" s="4">
         <f>BNVFE!V29*('BHNVFEAL-LDVs-psgr'!V$4/BNVFE!V$26)</f>
-        <v>3.9308720014886002E-4</v>
+        <v>4.0592637573368492E-4</v>
       </c>
       <c r="W7" s="4">
         <f>BNVFE!W29*('BHNVFEAL-LDVs-psgr'!W$4/BNVFE!W$26)</f>
-        <v>3.9293845521070378E-4</v>
+        <v>4.0623092417730792E-4</v>
       </c>
       <c r="X7" s="4">
         <f>BNVFE!X29*('BHNVFEAL-LDVs-psgr'!X$4/BNVFE!X$26)</f>
-        <v>3.9281882697013573E-4</v>
+        <v>4.0650919532138791E-4</v>
       </c>
       <c r="Y7" s="4">
         <f>BNVFE!Y29*('BHNVFEAL-LDVs-psgr'!Y$4/BNVFE!Y$26)</f>
-        <v>3.9354272058642249E-4</v>
+        <v>4.0788310069284843E-4</v>
       </c>
       <c r="Z7" s="4">
         <f>BNVFE!Z29*('BHNVFEAL-LDVs-psgr'!Z$4/BNVFE!Z$26)</f>
-        <v>3.9331686794151E-4</v>
+        <v>4.0828603219255716E-4</v>
       </c>
       <c r="AA7" s="4">
         <f>BNVFE!AA29*('BHNVFEAL-LDVs-psgr'!AA$4/BNVFE!AA$26)</f>
-        <v>3.930117319368427E-4</v>
+        <v>4.0878029771683217E-4</v>
       </c>
       <c r="AB7" s="4">
         <f>BNVFE!AB29*('BHNVFEAL-LDVs-psgr'!AB$4/BNVFE!AB$26)</f>
-        <v>3.9280440477488073E-4</v>
+        <v>4.0943882341830048E-4</v>
       </c>
       <c r="AC7" s="4">
         <f>BNVFE!AC29*('BHNVFEAL-LDVs-psgr'!AC$4/BNVFE!AC$26)</f>
-        <v>3.9272510536214313E-4</v>
+        <v>4.1034237921428937E-4</v>
       </c>
       <c r="AD7" s="4">
         <f>BNVFE!AD29*('BHNVFEAL-LDVs-psgr'!AD$4/BNVFE!AD$26)</f>
-        <v>3.9200385857580093E-4</v>
+        <v>4.1058689224812239E-4</v>
       </c>
       <c r="AE7" s="4">
         <f>BNVFE!AE29*('BHNVFEAL-LDVs-psgr'!AE$4/BNVFE!AE$26)</f>
-        <v>3.9112433694300379E-4</v>
+        <v>4.1067061175031487E-4</v>
       </c>
       <c r="AF7" s="4">
         <f>BNVFE!AF29*('BHNVFEAL-LDVs-psgr'!AF$4/BNVFE!AF$26)</f>
-        <v>3.9051236766252144E-4</v>
+        <v>4.1109763007020822E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -24161,7 +24187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24171,9 +24197,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -25191,7 +25217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25201,9 +25227,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
